--- a/finalproject/healmind/fixtures/data3.2.xlsx
+++ b/finalproject/healmind/fixtures/data3.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\PycharmProjects\final_project\finalproject\healmind\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89214D5-2F0F-4942-A7EB-C5DCE88B6E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC59681-C579-4204-97E6-9F3E48C0C28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doctor" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
   <si>
     <t>id</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>High level of perceived stress</t>
+  </si>
+  <si>
+    <t>Is_System</t>
+  </si>
+  <si>
+    <t>Created_By_ID</t>
   </si>
 </sst>
 </file>
@@ -890,7 +896,7 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1676,13 +1682,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>143</v>
       </c>
@@ -1692,8 +1706,14 @@
       <c r="C1" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1702,6 +1722,9 @@
       </c>
       <c r="C2" s="10" t="s">
         <v>147</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/finalproject/healmind/fixtures/data3.2.xlsx
+++ b/finalproject/healmind/fixtures/data3.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\PycharmProjects\final_project\finalproject\healmind\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC59681-C579-4204-97E6-9F3E48C0C28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB1ECAC-58B2-4933-A7D8-F0AB7BBBA25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doctor" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="question" sheetId="4" r:id="rId4"/>
     <sheet name="choice" sheetId="5" r:id="rId5"/>
     <sheet name="result" sheetId="6" r:id="rId6"/>
+    <sheet name="appointments" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="193">
   <si>
     <t>id</t>
   </si>
@@ -568,13 +569,49 @@
   </si>
   <si>
     <t>Created_By_ID</t>
+  </si>
+  <si>
+    <t>doctor_id</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>appointment_date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>payment_status</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>stripe_payment_id</t>
+  </si>
+  <si>
+    <t>stripe_account_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -596,6 +633,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -652,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -676,6 +720,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,15 +943,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="16.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,8 +997,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>11</v>
       </c>
@@ -988,7 +1043,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>12</v>
       </c>
@@ -1030,7 +1085,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>13</v>
       </c>
@@ -1072,7 +1127,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>14</v>
       </c>
@@ -1114,7 +1169,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>15</v>
       </c>
@@ -1156,7 +1211,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>16</v>
       </c>
@@ -1198,7 +1253,7 @@
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>17</v>
       </c>
@@ -1240,7 +1295,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>18</v>
       </c>
@@ -1282,7 +1337,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>19</v>
       </c>
@@ -1684,7 +1739,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2693,4 +2748,136 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877190A6-ADE7-4344-A660-DD9B5F389364}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11">
+        <v>45667</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="15">
+        <v>45667.416666666664</v>
+      </c>
+      <c r="H2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>45699</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="14">
+        <v>45699.416666666664</v>
+      </c>
+      <c r="H3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45728</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="14">
+        <v>45728.416666666664</v>
+      </c>
+      <c r="H4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>